--- a/public/template-import-excel/edom-excel-import-mhs-nonaktif.xlsx
+++ b/public/template-import-excel/edom-excel-import-mhs-nonaktif.xlsx
@@ -103,13 +103,13 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" style="1" width="9.142307692307693"/>
-    <col min="2" max="2" style="1" width="17.284675480769234" customWidth="1"/>
+    <col min="2" max="2" style="1" width="27.426923076923078" customWidth="1"/>
     <col min="3" max="3" style="1" width="31.569531250000004" customWidth="1"/>
     <col min="4" max="4" style="1" width="23.284314903846155" customWidth="1"/>
     <col min="5" max="5" style="1" width="12.713521634615386" customWidth="1"/>
